--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_18-25.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_18-25.xlsx
@@ -44,6 +44,12 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMRI-K 10MG/ML 5 AMP. I.M.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>ANOXICAM 20MG 10 SUPP.</t>
   </si>
   <si>
@@ -113,6 +119,12 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>COENZYME Q10 30 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>COLCHICINE 500MCG 100 TAB</t>
   </si>
   <si>
@@ -128,9 +140,6 @@
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -206,6 +215,12 @@
     <t>HYDROQUINE 200MG 20 TAB.</t>
   </si>
   <si>
+    <t>KAPRON 500MG/5ML 6 I.V. AMP.</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -305,13 +320,13 @@
     <t>TUSSISTOP 60 MG 20 TABS.</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>VITAMIN E 400MG 24 SOFT GELATIN CAPS.</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:3</t>
+    <t>3:2</t>
   </si>
   <si>
     <t>VONASPIRE 20MG 14 F.C. TAB</t>
@@ -998,17 +1013,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -1016,7 +1031,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1030,11 +1045,11 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -1042,7 +1057,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1056,11 +1071,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="10">
-        <v>0.33000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1068,7 +1083,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1076,17 +1091,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
-        <v>0.17000000000000001</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1102,17 +1117,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1120,7 +1135,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1128,17 +1143,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>42.899999999999999</v>
+        <v>42</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>0.14999999999999999</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1154,17 +1169,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>105</v>
+        <v>42.899999999999999</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
-        <v>0.5</v>
+        <v>0.14999999999999999</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1172,7 +1187,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1180,17 +1195,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>349</v>
+        <v>105</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1212,11 +1227,11 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>20</v>
+        <v>349</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>0.16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1232,17 +1247,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1250,7 +1265,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1264,11 +1279,11 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>-0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1276,7 +1291,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1284,17 +1299,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>0.33000000000000002</v>
+        <v>-0.33000000000000002</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1310,17 +1325,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1328,7 +1343,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1336,13 +1351,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
@@ -1354,7 +1369,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1362,17 +1377,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>0.20000000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1394,11 +1409,11 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1420,11 +1435,11 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1446,11 +1461,11 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1472,11 +1487,11 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1502,7 +1517,7 @@
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1518,17 +1533,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>139.68000000000001</v>
+        <v>24</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1550,11 +1565,11 @@
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1570,17 +1585,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>26.670000000000002</v>
+        <v>139.68000000000001</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1596,17 +1611,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>0.5</v>
+        <v>0.66000000000000003</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1614,7 +1629,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1622,17 +1637,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>53</v>
+        <v>26.670000000000002</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
-        <v>0.5</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1640,7 +1655,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1648,13 +1663,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
@@ -1680,11 +1695,11 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1706,11 +1721,11 @@
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
-        <v>1.6699999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1726,17 +1741,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>63.240000000000002</v>
+        <v>21</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>2</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1752,17 +1767,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>1</v>
+        <v>1.6699999999999999</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1770,7 +1785,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1778,17 +1793,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>50.439999999999998</v>
+        <v>63.240000000000002</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1796,7 +1811,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1804,17 +1819,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1822,7 +1837,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1830,13 +1845,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>17</v>
+        <v>50.439999999999998</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
@@ -1856,17 +1871,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>40.479999999999997</v>
+        <v>0</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1882,17 +1897,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1900,7 +1915,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1908,17 +1923,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>19</v>
+        <v>40.479999999999997</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>0.10000000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1926,7 +1941,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1934,13 +1949,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
@@ -1952,7 +1967,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1960,17 +1975,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1978,7 +1993,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1992,7 +2007,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="10">
@@ -2004,7 +2019,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2012,17 +2027,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="10">
-        <v>0.20000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2038,17 +2053,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="M46" s="9"/>
       <c r="N46" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2064,17 +2079,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2082,7 +2097,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2090,17 +2105,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="10">
-        <v>1</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2108,7 +2123,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2116,13 +2131,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="M49" s="9"/>
       <c r="N49" s="10">
@@ -2134,7 +2149,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2142,17 +2157,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2160,7 +2175,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2168,17 +2183,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="M51" s="9"/>
       <c r="N51" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2186,7 +2201,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2194,17 +2209,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>332</v>
+        <v>12.5</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2212,7 +2227,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2220,17 +2235,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2238,7 +2253,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2246,17 +2261,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="10">
-        <v>1</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2264,7 +2279,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2272,13 +2287,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>31</v>
+        <v>332</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="10">
@@ -2290,7 +2305,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2298,17 +2313,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M56" s="9"/>
       <c r="N56" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2324,17 +2339,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2342,7 +2357,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2350,13 +2365,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="10">
@@ -2376,17 +2391,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>153.59999999999999</v>
+        <v>31</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2394,7 +2409,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2402,17 +2417,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2420,7 +2435,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2428,13 +2443,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="10">
@@ -2446,7 +2461,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2454,17 +2469,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>20</v>
+        <v>153.59999999999999</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2472,7 +2487,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2480,17 +2495,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>169.19999999999999</v>
+        <v>180</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="10">
-        <v>0.29999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2498,7 +2513,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2506,13 +2521,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="10">
@@ -2524,7 +2539,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2532,17 +2547,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2550,7 +2565,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2558,17 +2573,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>73.319999999999993</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="10">
-        <v>1</v>
+        <v>0.29999999999999999</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2576,7 +2591,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2584,17 +2599,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>45.5</v>
+        <v>45</v>
       </c>
       <c r="M67" s="9"/>
       <c r="N67" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2602,7 +2617,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2610,17 +2625,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M68" s="9"/>
       <c r="N68" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2628,7 +2643,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2636,17 +2651,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>75</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="M69" s="9"/>
       <c r="N69" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2654,7 +2669,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2662,17 +2677,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>60</v>
+        <v>45.5</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2688,17 +2703,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="M71" s="9"/>
       <c r="N71" s="10">
-        <v>0.66000000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2706,7 +2721,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2714,13 +2729,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M72" s="9"/>
       <c r="N72" s="10">
@@ -2740,7 +2755,7 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
@@ -2766,17 +2781,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="M74" s="9"/>
       <c r="N74" s="10">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2798,11 +2813,11 @@
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M75" s="9"/>
       <c r="N75" s="10">
-        <v>1</v>
+        <v>0.98999999999999999</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2818,17 +2833,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="M76" s="9"/>
       <c r="N76" s="10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2844,17 +2859,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="M77" s="9"/>
       <c r="N77" s="10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2862,7 +2877,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2870,13 +2885,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="M78" s="9"/>
       <c r="N78" s="10">
@@ -2888,7 +2903,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2896,13 +2911,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M79" s="9"/>
       <c r="N79" s="10">
@@ -2922,17 +2937,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M80" s="9"/>
       <c r="N80" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2940,7 +2955,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2948,51 +2963,155 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M81" s="9"/>
       <c r="N81" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="6">
+        <v>79</v>
+      </c>
+      <c t="s" r="B82" s="7">
+        <v>114</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c t="s" r="H82" s="8">
+        <v>113</v>
+      </c>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="9">
+        <v>4</v>
+      </c>
+      <c r="M82" s="9"/>
+      <c r="N82" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" ht="25.5" customHeight="1">
+      <c r="A83" s="6">
+        <v>80</v>
+      </c>
+      <c t="s" r="B83" s="7">
+        <v>115</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c t="s" r="H83" s="8">
+        <v>83</v>
+      </c>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="9">
+        <v>40</v>
+      </c>
+      <c r="M83" s="9"/>
+      <c r="N83" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="82" ht="26.25" customHeight="1">
-      <c r="K82" s="11">
-        <v>4535.5299999999997</v>
-      </c>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="12">
-        <v>114</v>
-      </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c t="s" r="F83" s="13">
-        <v>115</v>
-      </c>
-      <c r="G83" s="13"/>
-      <c r="H83" s="14"/>
-      <c t="s" r="I83" s="15">
+    <row r="84" ht="24.75" customHeight="1">
+      <c r="A84" s="6">
+        <v>81</v>
+      </c>
+      <c t="s" r="B84" s="7">
         <v>116</v>
       </c>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c t="s" r="H84" s="8">
+        <v>117</v>
+      </c>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="9">
+        <v>30</v>
+      </c>
+      <c r="M84" s="9"/>
+      <c r="N84" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" ht="25.5" customHeight="1">
+      <c r="A85" s="6">
+        <v>82</v>
+      </c>
+      <c t="s" r="B85" s="7">
+        <v>118</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c t="s" r="H85" s="8">
+        <v>61</v>
+      </c>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="9">
+        <v>27</v>
+      </c>
+      <c r="M85" s="9"/>
+      <c r="N85" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="K86" s="11">
+        <v>4714.5299999999997</v>
+      </c>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="12">
+        <v>119</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c t="s" r="F87" s="13">
+        <v>120</v>
+      </c>
+      <c r="G87" s="13"/>
+      <c r="H87" s="14"/>
+      <c t="s" r="I87" s="15">
+        <v>121</v>
+      </c>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="245">
+  <mergeCells count="257">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3234,10 +3353,22 @@
     <mergeCell ref="B81:G81"/>
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="I83:N83"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="I87:N87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
